--- a/data/pca/factorExposure/factorExposure_2015-03-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02528344135091647</v>
+        <v>0.01295412281287805</v>
       </c>
       <c r="C2">
-        <v>0.02600615952596574</v>
+        <v>0.05383341177187079</v>
       </c>
       <c r="D2">
-        <v>-0.151933581059214</v>
+        <v>0.1180034748380453</v>
       </c>
       <c r="E2">
-        <v>0.05286306991679375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.05033952722599436</v>
+      </c>
+      <c r="F2">
+        <v>-0.0315573353539803</v>
+      </c>
+      <c r="G2">
+        <v>-0.1480761471653742</v>
+      </c>
+      <c r="H2">
+        <v>0.05995242366559773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04839800493073892</v>
+        <v>0.02361903405020043</v>
       </c>
       <c r="C4">
-        <v>0.07440498302596318</v>
+        <v>0.1114199758505087</v>
       </c>
       <c r="D4">
-        <v>-0.1127278103301623</v>
+        <v>0.1144440706651306</v>
       </c>
       <c r="E4">
-        <v>0.1125156182934363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.05171175846130536</v>
+      </c>
+      <c r="F4">
+        <v>-0.09221243026262065</v>
+      </c>
+      <c r="G4">
+        <v>-0.02907063589823758</v>
+      </c>
+      <c r="H4">
+        <v>-0.07342680579084791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02818442247817143</v>
+        <v>0.03358935448950352</v>
       </c>
       <c r="C6">
-        <v>0.01522363550936594</v>
+        <v>0.03599102168921208</v>
       </c>
       <c r="D6">
-        <v>-0.1176073059089344</v>
+        <v>0.1022164139983239</v>
       </c>
       <c r="E6">
-        <v>0.07225377787947693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.08670213652439718</v>
+      </c>
+      <c r="F6">
+        <v>-0.04266837861774047</v>
+      </c>
+      <c r="G6">
+        <v>0.003323682861143699</v>
+      </c>
+      <c r="H6">
+        <v>0.011002441345959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0009553754703243206</v>
+        <v>0.007256209135067451</v>
       </c>
       <c r="C7">
-        <v>0.02574007423233496</v>
+        <v>0.04096514751663954</v>
       </c>
       <c r="D7">
-        <v>-0.1075853496912457</v>
+        <v>0.09359991175376647</v>
       </c>
       <c r="E7">
-        <v>0.03781529056843643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.07711547785729657</v>
+      </c>
+      <c r="F7">
+        <v>-0.01100080600718493</v>
+      </c>
+      <c r="G7">
+        <v>0.005867002506524147</v>
+      </c>
+      <c r="H7">
+        <v>-0.02338016547427802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0001727464908675241</v>
+        <v>-0.005032937882946164</v>
       </c>
       <c r="C8">
-        <v>0.02777334324725283</v>
+        <v>0.03754586185635728</v>
       </c>
       <c r="D8">
-        <v>-0.07777044083636858</v>
+        <v>0.06166308638748241</v>
       </c>
       <c r="E8">
-        <v>0.05197333592655788</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.04734087172518145</v>
+      </c>
+      <c r="F8">
+        <v>-0.04926819269269136</v>
+      </c>
+      <c r="G8">
+        <v>-0.07944871364432839</v>
+      </c>
+      <c r="H8">
+        <v>-0.03923848013960315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03835073364001747</v>
+        <v>0.01709784388842912</v>
       </c>
       <c r="C9">
-        <v>0.06502758430419693</v>
+        <v>0.09177220063808345</v>
       </c>
       <c r="D9">
-        <v>-0.115172877391467</v>
+        <v>0.1003684752114144</v>
       </c>
       <c r="E9">
-        <v>0.0898483587675826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.04364905978712653</v>
+      </c>
+      <c r="F9">
+        <v>-0.05958696807057874</v>
+      </c>
+      <c r="G9">
+        <v>-0.009333506024913703</v>
+      </c>
+      <c r="H9">
+        <v>-0.02611067678232787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1892425234516163</v>
+        <v>0.2429771046049916</v>
       </c>
       <c r="C10">
-        <v>-0.1641166293445218</v>
+        <v>-0.09513861500351277</v>
       </c>
       <c r="D10">
-        <v>0.03817484959375591</v>
+        <v>-0.01415979277813196</v>
       </c>
       <c r="E10">
-        <v>0.03688999148706026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02336364117136105</v>
+      </c>
+      <c r="F10">
+        <v>-0.04089996775411012</v>
+      </c>
+      <c r="G10">
+        <v>0.007238183240412029</v>
+      </c>
+      <c r="H10">
+        <v>0.006561552576232088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01555658445707875</v>
+        <v>0.01093164851744327</v>
       </c>
       <c r="C11">
-        <v>0.04224616864977127</v>
+        <v>0.06046038342250608</v>
       </c>
       <c r="D11">
-        <v>-0.04659626140224434</v>
+        <v>0.0399031528898892</v>
       </c>
       <c r="E11">
-        <v>-0.006809527722953148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.03598155238939365</v>
+      </c>
+      <c r="F11">
+        <v>0.01199716199335891</v>
+      </c>
+      <c r="G11">
+        <v>0.003410338245660026</v>
+      </c>
+      <c r="H11">
+        <v>-0.02009289458680203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.015076436857725</v>
+        <v>0.01112929499769173</v>
       </c>
       <c r="C12">
-        <v>0.04213635888925302</v>
+        <v>0.05156193768922376</v>
       </c>
       <c r="D12">
-        <v>-0.0624098587501548</v>
+        <v>0.04660734575210401</v>
       </c>
       <c r="E12">
-        <v>0.008776394996115978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03089590705547605</v>
+      </c>
+      <c r="F12">
+        <v>0.01419012870965067</v>
+      </c>
+      <c r="G12">
+        <v>0.01588963725718415</v>
+      </c>
+      <c r="H12">
+        <v>0.01536819601622929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01022562883425217</v>
+        <v>0.005093190075282903</v>
       </c>
       <c r="C13">
-        <v>0.02718993061869002</v>
+        <v>0.05968035120801258</v>
       </c>
       <c r="D13">
-        <v>-0.1354722834611969</v>
+        <v>0.1538908709694215</v>
       </c>
       <c r="E13">
-        <v>0.07214126123443623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.07429771917444167</v>
+      </c>
+      <c r="F13">
+        <v>-0.03513541403423523</v>
+      </c>
+      <c r="G13">
+        <v>-0.06194800749217901</v>
+      </c>
+      <c r="H13">
+        <v>0.06986533627741626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006407683295675547</v>
+        <v>0.004363713020829781</v>
       </c>
       <c r="C14">
-        <v>0.01756306226893568</v>
+        <v>0.03478242114862123</v>
       </c>
       <c r="D14">
-        <v>-0.08013645100156558</v>
+        <v>0.08952525982870752</v>
       </c>
       <c r="E14">
-        <v>0.03260315942191605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.08251651109712019</v>
+      </c>
+      <c r="F14">
+        <v>-0.02742099176095441</v>
+      </c>
+      <c r="G14">
+        <v>-0.02678071456902309</v>
+      </c>
+      <c r="H14">
+        <v>0.03197905998719409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.003232869395420184</v>
+        <v>-0.00319376838871001</v>
       </c>
       <c r="C15">
-        <v>0.01333975202192395</v>
+        <v>0.030574273609577</v>
       </c>
       <c r="D15">
-        <v>-0.04621316650670786</v>
+        <v>0.05903927866061512</v>
       </c>
       <c r="E15">
-        <v>0.00973081253425026</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.0358467836256901</v>
+      </c>
+      <c r="F15">
+        <v>-0.006570371090737569</v>
+      </c>
+      <c r="G15">
+        <v>-0.02888808072990476</v>
+      </c>
+      <c r="H15">
+        <v>-0.01362891590985597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01528853275159631</v>
+        <v>0.01049911912197692</v>
       </c>
       <c r="C16">
-        <v>0.03842856267646754</v>
+        <v>0.05255942431163082</v>
       </c>
       <c r="D16">
-        <v>-0.0529603074118276</v>
+        <v>0.04313513615496407</v>
       </c>
       <c r="E16">
-        <v>0.005914195651987797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.03776532460592839</v>
+      </c>
+      <c r="F16">
+        <v>0.006377007952686876</v>
+      </c>
+      <c r="G16">
+        <v>0.01346310139928748</v>
+      </c>
+      <c r="H16">
+        <v>-0.008426115651335759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.00204973380453088</v>
+        <v>-0.001250840682286244</v>
       </c>
       <c r="C19">
-        <v>0.02167199373266812</v>
+        <v>0.01764007195479601</v>
       </c>
       <c r="D19">
-        <v>-0.07518825961610309</v>
+        <v>0.04129449221023517</v>
       </c>
       <c r="E19">
-        <v>0.03392781557972634</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.001517431163692585</v>
+      </c>
+      <c r="F19">
+        <v>-0.004553912497854594</v>
+      </c>
+      <c r="G19">
+        <v>-0.01703093829151285</v>
+      </c>
+      <c r="H19">
+        <v>0.02112883116845032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003485638426404153</v>
+        <v>0.005893944324584417</v>
       </c>
       <c r="C20">
-        <v>0.02561275818013602</v>
+        <v>0.04408043159099735</v>
       </c>
       <c r="D20">
-        <v>-0.07391983463055875</v>
+        <v>0.07982044540359769</v>
       </c>
       <c r="E20">
-        <v>0.05236428272627511</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.04673873524653067</v>
+      </c>
+      <c r="F20">
+        <v>-0.02578257356601834</v>
+      </c>
+      <c r="G20">
+        <v>0.008305291165052317</v>
+      </c>
+      <c r="H20">
+        <v>-0.02924029391730941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.007417442976612131</v>
+        <v>0.004001846205129222</v>
       </c>
       <c r="C21">
-        <v>0.02926836040689058</v>
+        <v>0.04801725850834283</v>
       </c>
       <c r="D21">
-        <v>-0.1254701916096455</v>
+        <v>0.1149535010611588</v>
       </c>
       <c r="E21">
-        <v>0.1124455083335188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0612627011191035</v>
+      </c>
+      <c r="F21">
+        <v>-0.08952490767890113</v>
+      </c>
+      <c r="G21">
+        <v>-0.0794285106884226</v>
+      </c>
+      <c r="H21">
+        <v>0.09359830663497462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.003868048253063996</v>
+        <v>-0.005937333654598413</v>
       </c>
       <c r="C22">
-        <v>0.05363612745932973</v>
+        <v>0.08272035996872103</v>
       </c>
       <c r="D22">
-        <v>-0.2175697034751641</v>
+        <v>0.2155691405046796</v>
       </c>
       <c r="E22">
-        <v>0.07693294210210591</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0433963184194078</v>
+      </c>
+      <c r="F22">
+        <v>-0.03267417402486317</v>
+      </c>
+      <c r="G22">
+        <v>-0.2553626047579951</v>
+      </c>
+      <c r="H22">
+        <v>-0.1228648230668959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.004369340961408426</v>
+        <v>-0.002865561720604734</v>
       </c>
       <c r="C23">
-        <v>0.05384893208839526</v>
+        <v>0.08440240339768611</v>
       </c>
       <c r="D23">
-        <v>-0.2163538927922248</v>
+        <v>0.2190703995798039</v>
       </c>
       <c r="E23">
-        <v>0.0770946887561202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04012998523840351</v>
+      </c>
+      <c r="F23">
+        <v>-0.03587603226258085</v>
+      </c>
+      <c r="G23">
+        <v>-0.2488877858380195</v>
+      </c>
+      <c r="H23">
+        <v>-0.1166891603978293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02103670049671998</v>
+        <v>0.0117403975060882</v>
       </c>
       <c r="C24">
-        <v>0.06074546523039304</v>
+        <v>0.07055071866937569</v>
       </c>
       <c r="D24">
-        <v>-0.06742956572537046</v>
+        <v>0.04506390379923745</v>
       </c>
       <c r="E24">
-        <v>0.008613508237205462</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0457047836905464</v>
+      </c>
+      <c r="F24">
+        <v>0.006729292914803271</v>
+      </c>
+      <c r="G24">
+        <v>-0.003812591599526054</v>
+      </c>
+      <c r="H24">
+        <v>-0.009750750025853077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02155496720045832</v>
+        <v>0.01629883706295676</v>
       </c>
       <c r="C25">
-        <v>0.05236639809988569</v>
+        <v>0.0652719231105322</v>
       </c>
       <c r="D25">
-        <v>-0.05976841088520952</v>
+        <v>0.04880103011834051</v>
       </c>
       <c r="E25">
-        <v>0.01392117049698557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03047327816717704</v>
+      </c>
+      <c r="F25">
+        <v>0.00478759433861102</v>
+      </c>
+      <c r="G25">
+        <v>0.01082149922228878</v>
+      </c>
+      <c r="H25">
+        <v>-0.007040872772728252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.007752289670482968</v>
+        <v>0.01733794079595773</v>
       </c>
       <c r="C26">
-        <v>0.0176215759061752</v>
+        <v>0.03120627993248964</v>
       </c>
       <c r="D26">
-        <v>-0.06499199149700736</v>
+        <v>0.05501867806357528</v>
       </c>
       <c r="E26">
-        <v>0.03692473025238202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.05923449171547655</v>
+      </c>
+      <c r="F26">
+        <v>-0.04416751674966393</v>
+      </c>
+      <c r="G26">
+        <v>-0.03473310613936192</v>
+      </c>
+      <c r="H26">
+        <v>0.003560981726962378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2689632347494189</v>
+        <v>0.3122438015024582</v>
       </c>
       <c r="C28">
-        <v>-0.1824024145732404</v>
+        <v>-0.09586313922676616</v>
       </c>
       <c r="D28">
-        <v>0.009263639277867974</v>
+        <v>-0.01908500251356787</v>
       </c>
       <c r="E28">
-        <v>0.0346926118941458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05297345151448817</v>
+      </c>
+      <c r="F28">
+        <v>-0.04630013182835038</v>
+      </c>
+      <c r="G28">
+        <v>-0.06436755115757754</v>
+      </c>
+      <c r="H28">
+        <v>-0.0126008549576581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001748141609801461</v>
+        <v>0.002645040576321405</v>
       </c>
       <c r="C29">
-        <v>0.02122363227976235</v>
+        <v>0.04189695562238017</v>
       </c>
       <c r="D29">
-        <v>-0.07640766644467328</v>
+        <v>0.09476586841385135</v>
       </c>
       <c r="E29">
-        <v>0.0408153283407514</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.09546458025627447</v>
+      </c>
+      <c r="F29">
+        <v>-0.0317781949160907</v>
+      </c>
+      <c r="G29">
+        <v>-0.02171223019191773</v>
+      </c>
+      <c r="H29">
+        <v>0.04094882579526059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02884060619995762</v>
+        <v>0.01891089111389091</v>
       </c>
       <c r="C30">
-        <v>0.07081888583519555</v>
+        <v>0.09769140089607961</v>
       </c>
       <c r="D30">
-        <v>-0.1530631305103237</v>
+        <v>0.118887392430971</v>
       </c>
       <c r="E30">
-        <v>0.05585745917918097</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.08422575327170896</v>
+      </c>
+      <c r="F30">
+        <v>-0.01461986695407659</v>
+      </c>
+      <c r="G30">
+        <v>-0.02492657925087154</v>
+      </c>
+      <c r="H30">
+        <v>-0.04475412143832763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03630268034462245</v>
+        <v>0.01146200257241361</v>
       </c>
       <c r="C31">
-        <v>0.08455484158612395</v>
+        <v>0.0954711185168078</v>
       </c>
       <c r="D31">
-        <v>-0.05847583213846541</v>
+        <v>0.03378646630241211</v>
       </c>
       <c r="E31">
-        <v>0.02337553554451884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02521726835296023</v>
+      </c>
+      <c r="F31">
+        <v>-0.01572092997956659</v>
+      </c>
+      <c r="G31">
+        <v>-0.01846454137951139</v>
+      </c>
+      <c r="H31">
+        <v>-0.002927280254471827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01627042356410224</v>
+        <v>0.01336854887081674</v>
       </c>
       <c r="C32">
-        <v>0.04027649216719732</v>
+        <v>0.05032461571901736</v>
       </c>
       <c r="D32">
-        <v>-0.09024543713363932</v>
+        <v>0.0799972568422827</v>
       </c>
       <c r="E32">
-        <v>0.06914525624702092</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01262115383699971</v>
+      </c>
+      <c r="F32">
+        <v>-0.04851070209736225</v>
+      </c>
+      <c r="G32">
+        <v>-0.03245583630331979</v>
+      </c>
+      <c r="H32">
+        <v>0.02539374798149546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.006868142465404459</v>
+        <v>0.008438018246520637</v>
       </c>
       <c r="C33">
-        <v>0.04116772903049563</v>
+        <v>0.06337905709613278</v>
       </c>
       <c r="D33">
-        <v>-0.110561279696731</v>
+        <v>0.1081654428124361</v>
       </c>
       <c r="E33">
-        <v>0.05899719507613663</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.05655776332054278</v>
+      </c>
+      <c r="F33">
+        <v>-0.02712484965310037</v>
+      </c>
+      <c r="G33">
+        <v>-0.01433011348362908</v>
+      </c>
+      <c r="H33">
+        <v>-0.001074867161508826</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.01827252504958225</v>
+        <v>0.01023717195855598</v>
       </c>
       <c r="C34">
-        <v>0.06135559349198438</v>
+        <v>0.06350150667190725</v>
       </c>
       <c r="D34">
-        <v>-0.0598854691915465</v>
+        <v>0.02592575316128183</v>
       </c>
       <c r="E34">
-        <v>-0.03385347826844622</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03594063054395939</v>
+      </c>
+      <c r="F34">
+        <v>0.03907426847160428</v>
+      </c>
+      <c r="G34">
+        <v>-0.002107427749534012</v>
+      </c>
+      <c r="H34">
+        <v>0.002538284880200042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>1.958761122724491e-05</v>
+        <v>0.003943994251612407</v>
       </c>
       <c r="C35">
-        <v>-0.0002032456309397647</v>
+        <v>0.01497577643786585</v>
       </c>
       <c r="D35">
-        <v>5.131684662837414e-06</v>
+        <v>0.03405624996009176</v>
       </c>
       <c r="E35">
-        <v>0.000112238825176091</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01942821796015147</v>
+      </c>
+      <c r="F35">
+        <v>-0.01643689032734905</v>
+      </c>
+      <c r="G35">
+        <v>-0.0009280583905012501</v>
+      </c>
+      <c r="H35">
+        <v>0.005664103857185423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.008683864161600281</v>
+        <v>0.01186000883084072</v>
       </c>
       <c r="C36">
-        <v>0.008206029490592657</v>
+        <v>0.02394380130803385</v>
       </c>
       <c r="D36">
-        <v>-0.06499458406805669</v>
+        <v>0.06410496958555129</v>
       </c>
       <c r="E36">
-        <v>0.05617233123699057</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.04816752720525211</v>
+      </c>
+      <c r="F36">
+        <v>-0.04683843503701834</v>
+      </c>
+      <c r="G36">
+        <v>-0.02079171228320872</v>
+      </c>
+      <c r="H36">
+        <v>0.001186162371472662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.005761083805939428</v>
+        <v>0.01132239007207574</v>
       </c>
       <c r="C38">
-        <v>0.008673730781043309</v>
+        <v>0.02852416663586812</v>
       </c>
       <c r="D38">
-        <v>-0.09045820487337779</v>
+        <v>0.08705361144843586</v>
       </c>
       <c r="E38">
-        <v>0.02848495359588898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.03144645860260592</v>
+      </c>
+      <c r="F38">
+        <v>-0.005044176451505291</v>
+      </c>
+      <c r="G38">
+        <v>-0.04158222069951063</v>
+      </c>
+      <c r="H38">
+        <v>-0.03384586938359364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01462511942104198</v>
+        <v>0.007141328887183984</v>
       </c>
       <c r="C39">
-        <v>0.06152307723562168</v>
+        <v>0.08699986622278069</v>
       </c>
       <c r="D39">
-        <v>-0.1140507254069369</v>
+        <v>0.08886628271804643</v>
       </c>
       <c r="E39">
-        <v>0.02328791469979237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.0804509376160622</v>
+      </c>
+      <c r="F39">
+        <v>0.006144366874852308</v>
+      </c>
+      <c r="G39">
+        <v>-0.00285472980762712</v>
+      </c>
+      <c r="H39">
+        <v>-0.008638369088410473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01724413644327248</v>
+        <v>0.01383075989643946</v>
       </c>
       <c r="C40">
-        <v>0.02636223826669415</v>
+        <v>0.04349103172770209</v>
       </c>
       <c r="D40">
-        <v>-0.1220959358129444</v>
+        <v>0.0864605809654438</v>
       </c>
       <c r="E40">
-        <v>0.0105994948287585</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.07072981086580138</v>
+      </c>
+      <c r="F40">
+        <v>0.03290086385797279</v>
+      </c>
+      <c r="G40">
+        <v>-0.08460163912779478</v>
+      </c>
+      <c r="H40">
+        <v>0.02818201169141528</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01104305984798788</v>
+        <v>0.01861075422299075</v>
       </c>
       <c r="C41">
-        <v>0.004684110199508293</v>
+        <v>0.02335218321617622</v>
       </c>
       <c r="D41">
-        <v>-0.03388047836123151</v>
+        <v>0.04246665850021002</v>
       </c>
       <c r="E41">
-        <v>0.02865865084717942</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01244611089532324</v>
+      </c>
+      <c r="F41">
+        <v>-0.01952924071925067</v>
+      </c>
+      <c r="G41">
+        <v>-0.01071481172823257</v>
+      </c>
+      <c r="H41">
+        <v>-0.003423774665312478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.001189826861320807</v>
+        <v>0.009920802815869555</v>
       </c>
       <c r="C43">
-        <v>0.001485044659699756</v>
+        <v>0.01651493621978981</v>
       </c>
       <c r="D43">
-        <v>-0.04785056061288321</v>
+        <v>0.05110835438850912</v>
       </c>
       <c r="E43">
-        <v>0.02972564318082317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02536981988046058</v>
+      </c>
+      <c r="F43">
+        <v>-0.02156093687390931</v>
+      </c>
+      <c r="G43">
+        <v>-0.009005918435751045</v>
+      </c>
+      <c r="H43">
+        <v>-0.01696011479753689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01923120531902782</v>
+        <v>0.01121917405971999</v>
       </c>
       <c r="C44">
-        <v>0.02718018361924908</v>
+        <v>0.05114318838446065</v>
       </c>
       <c r="D44">
-        <v>-0.09783062889070086</v>
+        <v>0.09818327229190334</v>
       </c>
       <c r="E44">
-        <v>0.07191694371457807</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.06715062255638367</v>
+      </c>
+      <c r="F44">
+        <v>-0.03422444284605206</v>
+      </c>
+      <c r="G44">
+        <v>-0.04609517394033116</v>
+      </c>
+      <c r="H44">
+        <v>-0.02459729034769855</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.002592610335690001</v>
+        <v>-0.001170233669095205</v>
       </c>
       <c r="C46">
-        <v>0.03085909013770514</v>
+        <v>0.04298465104553685</v>
       </c>
       <c r="D46">
-        <v>-0.08245511804151487</v>
+        <v>0.07026677333247422</v>
       </c>
       <c r="E46">
-        <v>0.03779837280431401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.07266692474401289</v>
+      </c>
+      <c r="F46">
+        <v>-0.0311787732640907</v>
+      </c>
+      <c r="G46">
+        <v>-0.02948904153610139</v>
+      </c>
+      <c r="H46">
+        <v>0.0009048818927824485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07212584130077965</v>
+        <v>0.03214362121437572</v>
       </c>
       <c r="C47">
-        <v>0.1125501792950079</v>
+        <v>0.125690627502053</v>
       </c>
       <c r="D47">
-        <v>-0.06124422339209466</v>
+        <v>0.02311554701856384</v>
       </c>
       <c r="E47">
-        <v>0.02380556881628407</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.002140919555798236</v>
+      </c>
+      <c r="F47">
+        <v>0.006131812707320865</v>
+      </c>
+      <c r="G47">
+        <v>0.01895481353650095</v>
+      </c>
+      <c r="H47">
+        <v>-0.006607150608980462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01051630824431211</v>
+        <v>0.01477473704578198</v>
       </c>
       <c r="C48">
-        <v>0.01768174365267985</v>
+        <v>0.03485734832177419</v>
       </c>
       <c r="D48">
-        <v>-0.0691410611294033</v>
+        <v>0.06859833384007669</v>
       </c>
       <c r="E48">
-        <v>0.05904622671010306</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.04241578142956514</v>
+      </c>
+      <c r="F48">
+        <v>-0.05289614181179518</v>
+      </c>
+      <c r="G48">
+        <v>-0.0307418780213578</v>
+      </c>
+      <c r="H48">
+        <v>-0.008605116827533683</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.001871986563380114</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.0008292381539568996</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0008004264477111425</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.001649671004914888</v>
+      </c>
+      <c r="F49">
+        <v>-0.001037737635359596</v>
+      </c>
+      <c r="G49">
+        <v>0.001853199905078551</v>
+      </c>
+      <c r="H49">
+        <v>0.0008900140520593402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03293473459904984</v>
+        <v>0.0151469220971652</v>
       </c>
       <c r="C50">
-        <v>0.05845486836644009</v>
+        <v>0.07638906856087289</v>
       </c>
       <c r="D50">
-        <v>-0.06210075845051315</v>
+        <v>0.04497872861394839</v>
       </c>
       <c r="E50">
-        <v>0.01413603984378192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02627972025578632</v>
+      </c>
+      <c r="F50">
+        <v>-0.006705433485495329</v>
+      </c>
+      <c r="G50">
+        <v>-0.02011138098618782</v>
+      </c>
+      <c r="H50">
+        <v>-0.01478019911897322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.00458312757417219</v>
+        <v>-0.003695423185378832</v>
       </c>
       <c r="C51">
-        <v>0.007336892529405297</v>
+        <v>0.01932636979271266</v>
       </c>
       <c r="D51">
-        <v>-0.0641780903321231</v>
+        <v>0.04516364864774787</v>
       </c>
       <c r="E51">
-        <v>0.02886516858706111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05109235536428983</v>
+      </c>
+      <c r="F51">
+        <v>-0.03238567014292997</v>
+      </c>
+      <c r="G51">
+        <v>-0.05270199297959467</v>
+      </c>
+      <c r="H51">
+        <v>0.00357848070927751</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1094480216938951</v>
+        <v>0.06145525056716791</v>
       </c>
       <c r="C53">
-        <v>0.1303500352692011</v>
+        <v>0.1618936043562054</v>
       </c>
       <c r="D53">
-        <v>0.003246514482368615</v>
+        <v>-0.02103726650295288</v>
       </c>
       <c r="E53">
-        <v>0.03822273038183127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02942367403610622</v>
+      </c>
+      <c r="F53">
+        <v>-0.04217138984168305</v>
+      </c>
+      <c r="G53">
+        <v>-0.007714346511597777</v>
+      </c>
+      <c r="H53">
+        <v>-0.01058201098615437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.009806067200765116</v>
+        <v>0.01249119426888914</v>
       </c>
       <c r="C54">
-        <v>0.02421847561337641</v>
+        <v>0.04215913856994747</v>
       </c>
       <c r="D54">
-        <v>-0.09112593361703218</v>
+        <v>0.07453738995296269</v>
       </c>
       <c r="E54">
-        <v>0.02065040291718759</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.03994075908209358</v>
+      </c>
+      <c r="F54">
+        <v>-0.002504747468306242</v>
+      </c>
+      <c r="G54">
+        <v>-0.03229412567433924</v>
+      </c>
+      <c r="H54">
+        <v>-0.02369034141985979</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08965172765740664</v>
+        <v>0.04313563194293147</v>
       </c>
       <c r="C55">
-        <v>0.1103951513917046</v>
+        <v>0.1278569803332572</v>
       </c>
       <c r="D55">
-        <v>-0.001397950739695508</v>
+        <v>-0.04258871921317</v>
       </c>
       <c r="E55">
-        <v>-0.003816497067500753</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.004913258482774205</v>
+      </c>
+      <c r="F55">
+        <v>-0.004442927939733544</v>
+      </c>
+      <c r="G55">
+        <v>-0.01348267307835533</v>
+      </c>
+      <c r="H55">
+        <v>0.00719479038035634</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.130363518651015</v>
+        <v>0.0621488355661884</v>
       </c>
       <c r="C56">
-        <v>0.1518960556217873</v>
+        <v>0.1899273010768655</v>
       </c>
       <c r="D56">
-        <v>-0.02414534390048452</v>
+        <v>-0.03529376754461225</v>
       </c>
       <c r="E56">
-        <v>-0.004601261866344094</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03041824104358382</v>
+      </c>
+      <c r="F56">
+        <v>-0.007384444996403599</v>
+      </c>
+      <c r="G56">
+        <v>-0.06085687238771734</v>
+      </c>
+      <c r="H56">
+        <v>-0.002605476139456549</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.0001614101671970457</v>
+        <v>0.008812321563481921</v>
       </c>
       <c r="C58">
-        <v>0.0183654614174869</v>
+        <v>0.06558434567623002</v>
       </c>
       <c r="D58">
-        <v>-0.2234971907015298</v>
+        <v>0.2663410566016559</v>
       </c>
       <c r="E58">
-        <v>0.1578598637254162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.06776908215599706</v>
+      </c>
+      <c r="F58">
+        <v>-0.1347954489907495</v>
+      </c>
+      <c r="G58">
+        <v>-0.1642360407410279</v>
+      </c>
+      <c r="H58">
+        <v>-0.0996188964804945</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1929356384331389</v>
+        <v>0.2575708279445926</v>
       </c>
       <c r="C59">
-        <v>-0.1308677861803171</v>
+        <v>-0.05992871546587992</v>
       </c>
       <c r="D59">
-        <v>-0.04882850949035421</v>
+        <v>0.04448101007961358</v>
       </c>
       <c r="E59">
-        <v>0.03393939920567248</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01634064146629354</v>
+      </c>
+      <c r="F59">
+        <v>-0.0180280843609983</v>
+      </c>
+      <c r="G59">
+        <v>-0.02269481461986161</v>
+      </c>
+      <c r="H59">
+        <v>0.03513861730383458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1805262598228524</v>
+        <v>0.1545925335440672</v>
       </c>
       <c r="C60">
-        <v>0.09877916165783361</v>
+        <v>0.1622709564931219</v>
       </c>
       <c r="D60">
-        <v>-0.1237084784177022</v>
+        <v>0.04357086411403218</v>
       </c>
       <c r="E60">
-        <v>-0.06459159808886333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1094006888707489</v>
+      </c>
+      <c r="F60">
+        <v>0.1888176279686809</v>
+      </c>
+      <c r="G60">
+        <v>0.2633876257679713</v>
+      </c>
+      <c r="H60">
+        <v>0.1183471218918585</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02361103578403565</v>
+        <v>0.01455832088542628</v>
       </c>
       <c r="C61">
-        <v>0.05808752711731707</v>
+        <v>0.08128175157362477</v>
       </c>
       <c r="D61">
-        <v>-0.08695876247077794</v>
+        <v>0.06673607589939981</v>
       </c>
       <c r="E61">
-        <v>0.0089530790909475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.05801071555648669</v>
+      </c>
+      <c r="F61">
+        <v>0.0134326258219101</v>
+      </c>
+      <c r="G61">
+        <v>0.003167291984795352</v>
+      </c>
+      <c r="H61">
+        <v>0.003106461053769815</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01127812137910581</v>
+        <v>0.0157419575408683</v>
       </c>
       <c r="C63">
-        <v>0.02544257895388572</v>
+        <v>0.04454258770443766</v>
       </c>
       <c r="D63">
-        <v>-0.07998257015815796</v>
+        <v>0.05406852446925061</v>
       </c>
       <c r="E63">
-        <v>0.03286083437147539</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.07736519191716634</v>
+      </c>
+      <c r="F63">
+        <v>-0.02106859191591428</v>
+      </c>
+      <c r="G63">
+        <v>-0.01089644159868949</v>
+      </c>
+      <c r="H63">
+        <v>-0.007803760541562854</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05321995359677296</v>
+        <v>0.01832198728915804</v>
       </c>
       <c r="C64">
-        <v>0.0892051962313091</v>
+        <v>0.1046466230521573</v>
       </c>
       <c r="D64">
-        <v>-0.02741659820853383</v>
+        <v>0.013113613304429</v>
       </c>
       <c r="E64">
-        <v>0.02676816901372784</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03608688745912911</v>
+      </c>
+      <c r="F64">
+        <v>-0.01730727799518881</v>
+      </c>
+      <c r="G64">
+        <v>0.02200030804292412</v>
+      </c>
+      <c r="H64">
+        <v>-0.03180203855313215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02648514459059499</v>
+        <v>0.02614341038942137</v>
       </c>
       <c r="C65">
-        <v>0.01688898333264727</v>
+        <v>0.04409834176685795</v>
       </c>
       <c r="D65">
-        <v>-0.09952176912026642</v>
+        <v>0.09960014776278478</v>
       </c>
       <c r="E65">
-        <v>0.03365211009037409</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0650427871141956</v>
+      </c>
+      <c r="F65">
+        <v>0.008478447021825484</v>
+      </c>
+      <c r="G65">
+        <v>0.04566078733710657</v>
+      </c>
+      <c r="H65">
+        <v>-0.02696038595018849</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02151832172412312</v>
+        <v>0.008181223649905887</v>
       </c>
       <c r="C66">
-        <v>0.07314041098928921</v>
+        <v>0.1077540763791841</v>
       </c>
       <c r="D66">
-        <v>-0.1335223630139546</v>
+        <v>0.1132741414369206</v>
       </c>
       <c r="E66">
-        <v>0.02288117832233504</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.07510091314689094</v>
+      </c>
+      <c r="F66">
+        <v>0.0071049102533609</v>
+      </c>
+      <c r="G66">
+        <v>-0.02245771629462094</v>
+      </c>
+      <c r="H66">
+        <v>-0.0149286789444078</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0209052711725655</v>
+        <v>0.02099586099721781</v>
       </c>
       <c r="C67">
-        <v>0.02066875648948304</v>
+        <v>0.03701504790334788</v>
       </c>
       <c r="D67">
-        <v>-0.05479947662576942</v>
+        <v>0.0466911832770012</v>
       </c>
       <c r="E67">
-        <v>-0.005892976760992827</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.02836248689233242</v>
+      </c>
+      <c r="F67">
+        <v>0.02399541185918073</v>
+      </c>
+      <c r="G67">
+        <v>-0.01809025020619758</v>
+      </c>
+      <c r="H67">
+        <v>-0.02165531650454446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2102114129982011</v>
+        <v>0.2791112731069939</v>
       </c>
       <c r="C68">
-        <v>-0.1439055989933538</v>
+        <v>-0.07122088466069862</v>
       </c>
       <c r="D68">
-        <v>-0.01913329421783205</v>
+        <v>0.02523616218526197</v>
       </c>
       <c r="E68">
-        <v>0.02038971125305694</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.001217053954173677</v>
+      </c>
+      <c r="F68">
+        <v>-0.02329320109772462</v>
+      </c>
+      <c r="G68">
+        <v>-0.05930022270132566</v>
+      </c>
+      <c r="H68">
+        <v>-0.001571993961627361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05486824797847949</v>
+        <v>0.01649277024638597</v>
       </c>
       <c r="C69">
-        <v>0.1191339872764872</v>
+        <v>0.1152035707028071</v>
       </c>
       <c r="D69">
-        <v>-0.07903879433063586</v>
+        <v>0.01852269804387899</v>
       </c>
       <c r="E69">
-        <v>0.01753457937560103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01371683673200672</v>
+      </c>
+      <c r="F69">
+        <v>0.01814077855115702</v>
+      </c>
+      <c r="G69">
+        <v>0.007928551786532416</v>
+      </c>
+      <c r="H69">
+        <v>0.008174394001647562</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2250740850269217</v>
+        <v>0.2709561146199366</v>
       </c>
       <c r="C71">
-        <v>-0.1687590151207224</v>
+        <v>-0.08848312511410129</v>
       </c>
       <c r="D71">
-        <v>-0.01538108542268743</v>
+        <v>0.007385107361066742</v>
       </c>
       <c r="E71">
-        <v>0.007307414021096826</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.006479058299410487</v>
+      </c>
+      <c r="F71">
+        <v>-0.01260710440606353</v>
+      </c>
+      <c r="G71">
+        <v>-0.04332426279107747</v>
+      </c>
+      <c r="H71">
+        <v>-0.01720879284634582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09889244767886228</v>
+        <v>0.06443542689405306</v>
       </c>
       <c r="C72">
-        <v>0.07452772940854677</v>
+        <v>0.1242330656391335</v>
       </c>
       <c r="D72">
-        <v>-0.1182753001706154</v>
+        <v>0.05956491827893177</v>
       </c>
       <c r="E72">
-        <v>0.01976556337067872</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08393667073897634</v>
+      </c>
+      <c r="F72">
+        <v>0.0185204557434212</v>
+      </c>
+      <c r="G72">
+        <v>0.03659708865909681</v>
+      </c>
+      <c r="H72">
+        <v>0.004710597415169314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1671386860708299</v>
+        <v>0.1564159996212328</v>
       </c>
       <c r="C73">
-        <v>0.07398982752308095</v>
+        <v>0.1580629775372585</v>
       </c>
       <c r="D73">
-        <v>-0.2003165021902263</v>
+        <v>0.07414264117404055</v>
       </c>
       <c r="E73">
-        <v>-0.1023890146822022</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2863771105015446</v>
+      </c>
+      <c r="F73">
+        <v>0.2807240256314194</v>
+      </c>
+      <c r="G73">
+        <v>0.4283042486539719</v>
+      </c>
+      <c r="H73">
+        <v>0.1016313767213512</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1006128204959212</v>
+        <v>0.05255468532862652</v>
       </c>
       <c r="C74">
-        <v>0.1174482233645732</v>
+        <v>0.1411450211551191</v>
       </c>
       <c r="D74">
-        <v>0.04816622140231535</v>
+        <v>-0.04971934998097244</v>
       </c>
       <c r="E74">
-        <v>0.01806881456295916</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.02547803348840985</v>
+      </c>
+      <c r="F74">
+        <v>-0.03293057936204521</v>
+      </c>
+      <c r="G74">
+        <v>0.006714998344876283</v>
+      </c>
+      <c r="H74">
+        <v>0.0005758723349544068</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2185832014432574</v>
+        <v>0.1020523096894292</v>
       </c>
       <c r="C75">
-        <v>0.2093420948721462</v>
+        <v>0.2614538889879393</v>
       </c>
       <c r="D75">
-        <v>0.06358552408882134</v>
+        <v>-0.1237096870476435</v>
       </c>
       <c r="E75">
-        <v>-0.08439020988332964</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1121625460602125</v>
+      </c>
+      <c r="F75">
+        <v>0.04906219238426532</v>
+      </c>
+      <c r="G75">
+        <v>-0.1049862790960981</v>
+      </c>
+      <c r="H75">
+        <v>-0.07025792717928152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1302953821073972</v>
+        <v>0.06108271183495525</v>
       </c>
       <c r="C76">
-        <v>0.1395764373763628</v>
+        <v>0.175555051078846</v>
       </c>
       <c r="D76">
-        <v>0.0009811610533902104</v>
+        <v>-0.05285142926790388</v>
       </c>
       <c r="E76">
-        <v>-0.01631301083130347</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03574630461765554</v>
+      </c>
+      <c r="F76">
+        <v>0.002872513609188695</v>
+      </c>
+      <c r="G76">
+        <v>-0.04263772351936206</v>
+      </c>
+      <c r="H76">
+        <v>-0.01464404614647205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.01888610179197111</v>
+        <v>0.002603989158733951</v>
       </c>
       <c r="C77">
-        <v>0.07602411795283882</v>
+        <v>0.1184109434502396</v>
       </c>
       <c r="D77">
-        <v>-0.200480767114566</v>
+        <v>0.4691979733940554</v>
       </c>
       <c r="E77">
-        <v>0.1118922308486329</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7862410890118324</v>
+      </c>
+      <c r="F77">
+        <v>0.1682828131376816</v>
+      </c>
+      <c r="G77">
+        <v>0.2175250680314375</v>
+      </c>
+      <c r="H77">
+        <v>-0.002967572918074163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03384224417337978</v>
+        <v>0.02274544723404944</v>
       </c>
       <c r="C78">
-        <v>0.07258351801501009</v>
+        <v>0.0943682134878269</v>
       </c>
       <c r="D78">
-        <v>-0.1542317087032629</v>
+        <v>0.08831968768262184</v>
       </c>
       <c r="E78">
-        <v>0.08142618442652345</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07800803297755202</v>
+      </c>
+      <c r="F78">
+        <v>-0.04147648816776186</v>
+      </c>
+      <c r="G78">
+        <v>-0.08408925368742456</v>
+      </c>
+      <c r="H78">
+        <v>0.03539113018111411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1075521944705188</v>
+        <v>0.05139028320045021</v>
       </c>
       <c r="C79">
-        <v>0.2047494693915174</v>
+        <v>0.2112287712332809</v>
       </c>
       <c r="D79">
-        <v>0.4391510705697996</v>
+        <v>-0.1282284104404614</v>
       </c>
       <c r="E79">
-        <v>0.7910326617266454</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.08445473092231295</v>
+      </c>
+      <c r="F79">
+        <v>-0.8018851266874043</v>
+      </c>
+      <c r="G79">
+        <v>0.4109176659443686</v>
+      </c>
+      <c r="H79">
+        <v>0.004959989471411646</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.002339947909846013</v>
+        <v>0.006999266115806741</v>
       </c>
       <c r="C80">
-        <v>0.04630764944366745</v>
+        <v>0.04531934560148244</v>
       </c>
       <c r="D80">
-        <v>-0.04691772599633399</v>
+        <v>0.0316565940598687</v>
       </c>
       <c r="E80">
-        <v>0.004691625727267589</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06163943196779293</v>
+      </c>
+      <c r="F80">
+        <v>0.001877134296915811</v>
+      </c>
+      <c r="G80">
+        <v>-0.0176046856846516</v>
+      </c>
+      <c r="H80">
+        <v>0.0902022821689456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1088051277085203</v>
+        <v>0.03823321327400454</v>
       </c>
       <c r="C81">
-        <v>0.135851350854069</v>
+        <v>0.1594004317170798</v>
       </c>
       <c r="D81">
-        <v>0.07616934216647572</v>
+        <v>-0.07300733523262511</v>
       </c>
       <c r="E81">
-        <v>0.00445882502392023</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05649470013237128</v>
+      </c>
+      <c r="F81">
+        <v>-0.05531509468231591</v>
+      </c>
+      <c r="G81">
+        <v>-0.07573304894523024</v>
+      </c>
+      <c r="H81">
+        <v>0.008099703515512121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2251290825645895</v>
+        <v>0.08554710485085955</v>
       </c>
       <c r="C82">
-        <v>0.3047163357028418</v>
+        <v>0.3000581854923713</v>
       </c>
       <c r="D82">
-        <v>0.1244837444685973</v>
+        <v>-0.2271996775149638</v>
       </c>
       <c r="E82">
-        <v>-0.229070936390477</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1021932563235913</v>
+      </c>
+      <c r="F82">
+        <v>0.1274930174411159</v>
+      </c>
+      <c r="G82">
+        <v>-0.1375655559161984</v>
+      </c>
+      <c r="H82">
+        <v>0.009098289599401541</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01099735042294703</v>
+        <v>-0.008181803788199635</v>
       </c>
       <c r="C83">
-        <v>0.05217998981748381</v>
+        <v>0.01985945519425913</v>
       </c>
       <c r="D83">
-        <v>-0.01708484376931825</v>
+        <v>0.02810292875259423</v>
       </c>
       <c r="E83">
-        <v>0.04134795545315448</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09037885087275783</v>
+      </c>
+      <c r="F83">
+        <v>-0.08274258783240579</v>
+      </c>
+      <c r="G83">
+        <v>-0.2054228930556664</v>
+      </c>
+      <c r="H83">
+        <v>0.9088565032392816</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001598963152532919</v>
+        <v>-0.003744028861411304</v>
       </c>
       <c r="C84">
-        <v>0.00273702847624084</v>
+        <v>0.01667666266962752</v>
       </c>
       <c r="D84">
-        <v>-0.008405231539614347</v>
+        <v>0.04232676159670504</v>
       </c>
       <c r="E84">
-        <v>-0.002123205186883049</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01217513163750716</v>
+      </c>
+      <c r="F84">
+        <v>-0.0268558795214552</v>
+      </c>
+      <c r="G84">
+        <v>-0.05696492160830495</v>
+      </c>
+      <c r="H84">
+        <v>-0.05732722959312925</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1360298099206974</v>
+        <v>0.05821931015132453</v>
       </c>
       <c r="C85">
-        <v>0.1467026967324249</v>
+        <v>0.1763818101557708</v>
       </c>
       <c r="D85">
-        <v>0.0794263839323989</v>
+        <v>-0.110481672965731</v>
       </c>
       <c r="E85">
-        <v>0.01756210606771059</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.01600272779571534</v>
+      </c>
+      <c r="F85">
+        <v>-0.06348565175720876</v>
+      </c>
+      <c r="G85">
+        <v>-0.02289847465375897</v>
+      </c>
+      <c r="H85">
+        <v>-0.01892557450765429</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02259229267827084</v>
+        <v>0.01676396467266814</v>
       </c>
       <c r="C86">
-        <v>0.006473833815838726</v>
+        <v>0.03912880051348747</v>
       </c>
       <c r="D86">
-        <v>-0.1097543174280403</v>
+        <v>0.1121736973091906</v>
       </c>
       <c r="E86">
-        <v>0.04531681213915925</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.002490117807699564</v>
+      </c>
+      <c r="F86">
+        <v>-0.02120270569159288</v>
+      </c>
+      <c r="G86">
+        <v>0.01657352797016378</v>
+      </c>
+      <c r="H86">
+        <v>-0.02659711397135402</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0239979504871287</v>
+        <v>0.01270659299794575</v>
       </c>
       <c r="C87">
-        <v>0.03177823588353447</v>
+        <v>0.06675810545587881</v>
       </c>
       <c r="D87">
-        <v>-0.1425907848550012</v>
+        <v>0.1325752702368185</v>
       </c>
       <c r="E87">
-        <v>0.08440427071601364</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.04613026201408262</v>
+      </c>
+      <c r="F87">
+        <v>-0.04266818436641084</v>
+      </c>
+      <c r="G87">
+        <v>-0.08055869872318944</v>
+      </c>
+      <c r="H87">
+        <v>0.003585347786119904</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04739807449655425</v>
+        <v>0.03394763398144149</v>
       </c>
       <c r="C88">
-        <v>0.04738038083550937</v>
+        <v>0.07042699417635798</v>
       </c>
       <c r="D88">
-        <v>-0.001705232193646713</v>
+        <v>0.01165889684130502</v>
       </c>
       <c r="E88">
-        <v>0.02286937138147397</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.03136400703189248</v>
+      </c>
+      <c r="F88">
+        <v>-0.02058774196324597</v>
+      </c>
+      <c r="G88">
+        <v>0.007832635773014419</v>
+      </c>
+      <c r="H88">
+        <v>-0.01871586639315641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3358224630990969</v>
+        <v>0.3962582677615654</v>
       </c>
       <c r="C89">
-        <v>-0.3057118801541285</v>
+        <v>-0.1646477562029538</v>
       </c>
       <c r="D89">
-        <v>-0.03949724902531083</v>
+        <v>0.05457017039963508</v>
       </c>
       <c r="E89">
-        <v>0.1074487543244955</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.03528290806980621</v>
+      </c>
+      <c r="F89">
+        <v>-0.06691468113198598</v>
+      </c>
+      <c r="G89">
+        <v>-0.08533962569018595</v>
+      </c>
+      <c r="H89">
+        <v>0.0843831106430582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2695414211001886</v>
+        <v>0.3221746387722885</v>
       </c>
       <c r="C90">
-        <v>-0.2266994978476236</v>
+        <v>-0.1087226301724523</v>
       </c>
       <c r="D90">
-        <v>-0.0589785479220077</v>
+        <v>0.03186037725435246</v>
       </c>
       <c r="E90">
-        <v>-0.001621583091967792</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0007975792136795805</v>
+      </c>
+      <c r="F90">
+        <v>0.009913593299582798</v>
+      </c>
+      <c r="G90">
+        <v>-0.06258547736483229</v>
+      </c>
+      <c r="H90">
+        <v>0.003774448911990897</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1426389084159566</v>
+        <v>0.0687799403290285</v>
       </c>
       <c r="C91">
-        <v>0.1970928836877545</v>
+        <v>0.2034134046882413</v>
       </c>
       <c r="D91">
-        <v>0.09472905034937605</v>
+        <v>-0.1048352059397375</v>
       </c>
       <c r="E91">
-        <v>0.0367550705940308</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0798183202687896</v>
+      </c>
+      <c r="F91">
+        <v>-0.05963379860016024</v>
+      </c>
+      <c r="G91">
+        <v>-0.0116200899374702</v>
+      </c>
+      <c r="H91">
+        <v>0.01899234752736169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.250832416293397</v>
+        <v>0.3342969786099222</v>
       </c>
       <c r="C92">
-        <v>-0.2524129505570634</v>
+        <v>-0.1513878513071361</v>
       </c>
       <c r="D92">
-        <v>0.05083125989352849</v>
+        <v>0.01749572350231304</v>
       </c>
       <c r="E92">
-        <v>0.01854594961336454</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06804693325205638</v>
+      </c>
+      <c r="F92">
+        <v>-0.03635515855255658</v>
+      </c>
+      <c r="G92">
+        <v>-0.0006064196628923982</v>
+      </c>
+      <c r="H92">
+        <v>-0.1342762882848711</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2895252472825432</v>
+        <v>0.3290674263290492</v>
       </c>
       <c r="C93">
-        <v>-0.2380317623273827</v>
+        <v>-0.1242314672816516</v>
       </c>
       <c r="D93">
-        <v>0.0208920802997706</v>
+        <v>-0.02476651676452609</v>
       </c>
       <c r="E93">
-        <v>-0.0006695792472311197</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01347104235642045</v>
+      </c>
+      <c r="F93">
+        <v>-0.01070275779999228</v>
+      </c>
+      <c r="G93">
+        <v>0.02473981011228436</v>
+      </c>
+      <c r="H93">
+        <v>-0.03418247127320925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.265236753591676</v>
+        <v>0.1249809552878255</v>
       </c>
       <c r="C94">
-        <v>0.2788734871153897</v>
+        <v>0.3249191742719688</v>
       </c>
       <c r="D94">
-        <v>0.2329267645605384</v>
+        <v>-0.3577539178636923</v>
       </c>
       <c r="E94">
-        <v>-0.3023952614478097</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1227415905099851</v>
+      </c>
+      <c r="F94">
+        <v>0.1536628051320634</v>
+      </c>
+      <c r="G94">
+        <v>-0.2858145972427354</v>
+      </c>
+      <c r="H94">
+        <v>-0.08705537511136803</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01121911510467214</v>
+        <v>0.01776690804863242</v>
       </c>
       <c r="C95">
-        <v>0.04613685658364273</v>
+        <v>0.07399691257617183</v>
       </c>
       <c r="D95">
-        <v>-0.1125117300377829</v>
+        <v>0.1355302211132582</v>
       </c>
       <c r="E95">
-        <v>0.04919028109581314</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.09457733140624525</v>
+      </c>
+      <c r="F95">
+        <v>0.03179391596924867</v>
+      </c>
+      <c r="G95">
+        <v>0.06613034718511174</v>
+      </c>
+      <c r="H95">
+        <v>-0.04793974128502546</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002464771357633655</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001244039170104679</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0002009275213001436</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.004239110867764804</v>
+      </c>
+      <c r="F97">
+        <v>-0.0004652409595031712</v>
+      </c>
+      <c r="G97">
+        <v>-0.001669053866348029</v>
+      </c>
+      <c r="H97">
+        <v>-0.005048557956783318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.148504444181029</v>
+        <v>0.1354212354066215</v>
       </c>
       <c r="C98">
-        <v>0.09613287052825342</v>
+        <v>0.1610174373847199</v>
       </c>
       <c r="D98">
-        <v>-0.1291161334034199</v>
+        <v>0.02744166941820211</v>
       </c>
       <c r="E98">
-        <v>-0.1096301140283777</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1844021739352794</v>
+      </c>
+      <c r="F98">
+        <v>0.237917358486062</v>
+      </c>
+      <c r="G98">
+        <v>0.3125894278347504</v>
+      </c>
+      <c r="H98">
+        <v>0.104969396945145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0009372407491313595</v>
+        <v>0.003095544598510036</v>
       </c>
       <c r="C101">
-        <v>0.02051102535524352</v>
+        <v>0.04111751418119571</v>
       </c>
       <c r="D101">
-        <v>-0.07624201638897279</v>
+        <v>0.09404100961806384</v>
       </c>
       <c r="E101">
-        <v>0.04158480926155318</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0945864420260107</v>
+      </c>
+      <c r="F101">
+        <v>-0.03190588032590309</v>
+      </c>
+      <c r="G101">
+        <v>-0.02274610005350053</v>
+      </c>
+      <c r="H101">
+        <v>0.04078320198482945</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09609449292312046</v>
+        <v>0.02383310992429873</v>
       </c>
       <c r="C102">
-        <v>0.1650079728392062</v>
+        <v>0.1402215549317163</v>
       </c>
       <c r="D102">
-        <v>0.0202685502180979</v>
+        <v>-0.09747497973697707</v>
       </c>
       <c r="E102">
-        <v>-0.1008840538265086</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.05423367168171107</v>
+      </c>
+      <c r="F102">
+        <v>0.08287749456345209</v>
+      </c>
+      <c r="G102">
+        <v>-0.01165846907011109</v>
+      </c>
+      <c r="H102">
+        <v>0.02643541523472989</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
